--- a/pdf_v2/Excel/chase.xlsx
+++ b/pdf_v2/Excel/chase.xlsx
@@ -467,7 +467,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,17 +477,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&amp; SQ *MAGA SEAFOOD</t>
+          <t>QUIRUTEX ZAPOPAN JAL</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1000</v>
+        <v>80.98999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -497,37 +497,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&amp; SHELL OIL</t>
+          <t>LA MICHOACANA PLUS VALLEJ VALLEJO</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>98.09</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&amp; 8CHICK-FIL-A #04448</t>
+          <t>EL CALLEJON DE MORELOS PONCITLAN JAL</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>54.18</v>
+        <v>87.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -537,37 +537,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&amp; SHELL OIL</t>
+          <t>STARBUCKS 800-782-7282</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>82.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&amp; SHELL OIL</t>
+          <t>RESTAURANT DEPOT SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>34.4</v>
+        <v>1231.63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,17 +577,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&amp; LEGALZOOM* LEGAL PLAN</t>
+          <t>ROLLING PIN DONUTS LLC SAN BRUNO</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>49</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -597,17 +597,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&amp; SHELL OIL</t>
+          <t>CHEVRON 0090288 LOS ALTOS</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>48.07</v>
+        <v>70.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -617,57 +617,57 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&amp; TST* TOSTADAS 3 Santa Clara</t>
+          <t>VALLEJO CAR WASH VALLEJO</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
+          <t>07/25/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&amp; FAST &amp; EASY MART #56 CALISTOGA</t>
+          <t>ALLIED PROPANE SERVICE IN 510-2377077</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>70</v>
+        <v>206.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
+          <t>07/25/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&amp; 4 WHEEL PARTS 19 JOS</t>
+          <t>EXCEL SAN JOSE</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>80</v>
+        <v>40.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -677,57 +677,57 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>&amp; TAQUERIA LEON</t>
+          <t>CRAIGSLIST.ORG</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>63.22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>07/26/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>&amp; SHELL OIL</t>
+          <t>L LOPEZ CPA 650-3611235</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>60.13</v>
+        <v>19545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>07/26/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>&amp; CARNICERIA TEPA</t>
+          <t>GOCHEES PIZZA SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>196.2</v>
+        <v>210.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -737,17 +737,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>&amp; SHELL OIL</t>
+          <t>SQ *FREDDIE'S SANDWICHES SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>104.04</v>
+        <v>263.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -757,57 +757,57 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>&amp; SHELL OIL</t>
+          <t>LEVY @ LEVIS STADIUM SANTA CLARA</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45.11</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07/28/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>&amp; TST* ANGRY CHICKZ - VALLE</t>
+          <t>FORTY NINERS STADIUM MANA SANTA CLARA</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>41.01</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>&amp; PG&amp;E/EZ-PAY</t>
+          <t>7-ELEVEN 33006 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>512.85</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -817,571 +817,571 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>&amp; PG&amp;E/EZ-PAY</t>
+          <t>SHOPIFY* 257398779 HTTPSSHOPIFY.</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>977.8200000000001</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>07/28/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>&amp; ECM, A LEGALZOOM CO.</t>
+          <t>TM *TICKETMASTER</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>33.5</v>
+        <v>397.65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>YARA?S MEXICAN FOOD</t>
+          <t>ROLLING PIN DONUTS LLC SAN BRUNO</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>550</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TAQUERIA LAS PENCAS 2</t>
+          <t>LA HACIENDA MARKET SOUTH SAN FRA</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>62.03</v>
+        <v>260.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>76 - DOUBLE AA SAN BRU</t>
+          <t>WHEELHISTORY HTTPSWWW.WHEE</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>90.01000000000001</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>VISTAPRINT</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>27.3</v>
+        <v>72.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>SHELL OIL 57444216501 EMERYVILLE</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>60.8</v>
+        <v>60.16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08/21/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>70</v>
+        <v>40.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>07/30/2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>&amp; 76 - NW254074 ASD2 NOC</t>
+          <t>O'REILLY 2913 SANTA CLARA</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>66.29000000000001</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>07/30/2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>&amp; CASTRO VALLEY UNION 76 CASTRO VALLEY</t>
+          <t>ALLIED PROPANE SERVICE IN 510-2377077</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>&amp; 76 - NW254074 ASD2 NOC</t>
+          <t>SAFEWAY #0968 VALLEJO</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>92.06</v>
+        <v>78.48999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>07/30/2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARCO#04977TD OIL &amp; GAS L CASTRO VALLEY</t>
+          <t>VOLARIS GI8BQK VOLARIS.COM</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>79</v>
+        <v>41.64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07/31/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CILANTRO SF TAQUERIA</t>
+          <t>7-ELEVEN 33006 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>75.78</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>07/31/2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Staples Inc</t>
+          <t>DD DOORDASH IHOP</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>232.33</v>
+        <v>90.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>07/30/2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LUCKY #748 SAN BRUN</t>
+          <t>VALCOOP Y ASOCIADOS TLAJOMULCO</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>72.81</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>07/31/2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>OFFICE DEPOT #3286 COLMA</t>
+          <t>WHEELHISTORY HTTPSWWW.WHEE</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>245.29</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>07/30/2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CHEVRON 0358727 PLEASANTON</t>
+          <t>BURGUER KING ANDARES ZAPOPAN JAL</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>95.28</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARCO#04977TD OIL &amp; GAS L CASTRO VALLEY</t>
+          <t>ALMADEN OPTOMETRIC ASSOCI SAN JOSE</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>25.66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>07/31/2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HARBOR FREIGHT TOOLS 494 HAYWARD</t>
+          <t>IN-N-OUT DALY CITY 2 DALY CITY</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>46.48</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VICTORIA PASTRY CO.</t>
+          <t>ULINE *SHIP SUPPLIES</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>81</v>
+        <v>1207.22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FREDDIE'S SANDWICHES</t>
+          <t>COSTCO WHSE #0470 SAN JOSE</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>245</v>
+        <v>441.85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08/12/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SPEEDWAY 4874</t>
+          <t>ULINE *SHIP SUPPLIES</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>100.26</v>
+        <v>449.57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JIFFY LUBE #1404 HAYWARD</t>
+          <t>COSTCO WHSE #0470 SAN JOSE</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>199.81</v>
+        <v>579.98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>07/31/2024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>76 - NW254074 ASD2 NOC</t>
+          <t>TARGET 00010546 SAN BRUNO</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>102</v>
+        <v>461.97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BERKELEY-TRANSFER STAT</t>
+          <t>POINTMP*GANA CIUDAD DE MEX</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>129.36</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>OAKLAND PORT GAS STATION</t>
+          <t>COM RAPID RIM ATO MEX MERIDA YUC</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>28</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>OAKLAND PORT GAS STATION</t>
+          <t>FARM SIMILARES SUC 119 GUADALAJARA J</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>105.12</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>OAKLAND PORT GAS STATION</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>108</v>
+        <v>52.42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>OAKLAND PORT GAS STATION</t>
+          <t>JOY MORODOJEWELRY GUADALAJARA J</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>128</v>
+        <v>4073.87</v>
       </c>
     </row>
     <row r="48">
@@ -1392,16 +1392,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07/22/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>&amp; VERNON FUEL VERNON</t>
+          <t>H64 DIVERS GDL TLAJOMULCO</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>50</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="49">
@@ -1412,16 +1412,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>&amp; QUIRUTEX ZAPOPAN JAL</t>
+          <t>STARBUCKS MINERVA GUADALAJARA J</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>80.98999999999999</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="50">
@@ -1432,16 +1432,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>&amp; LA MICHOACANA PLUS VALLEJ</t>
+          <t>GAS MINERVA GDL GUADALAJARA J</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>26.75</v>
+        <v>105.23</v>
       </c>
     </row>
     <row r="51">
@@ -1452,16 +1452,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>&amp; EL CALLEJON DE MORELOS PONCITLAN JAL</t>
+          <t>76 - DOUBLE AA SAN BRU SAN BRUNO</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>87.81</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="52">
@@ -1472,16 +1472,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>&amp; RESTAURANT DEPOT</t>
+          <t>USC HOTEL 213-7484141</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1231.63</v>
+        <v>403.95</v>
       </c>
     </row>
     <row r="53">
@@ -1492,16 +1492,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>&amp; STARBUCKS</t>
+          <t>COM RAPID RIM ATO MEX MERIDA YUC</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>25</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="54">
@@ -1512,16 +1512,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>&amp; MI JALISCO RESTAURANTE</t>
+          <t>DD DOORDASH PARKHOWAR</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>58.98</v>
+        <v>233.57</v>
       </c>
     </row>
     <row r="55">
@@ -1532,16 +1532,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>&amp; VERNON FUEL VERNON</t>
+          <t>POLLO CAMPERO R135 OLO olo.com</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>50</v>
+        <v>402.22</v>
       </c>
     </row>
     <row r="56">
@@ -1552,16 +1552,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>&amp; TOYOTA</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>397.32</v>
+        <v>38.29</v>
       </c>
     </row>
     <row r="57">
@@ -1572,16 +1572,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>&amp; TOYOTA</t>
+          <t>COSTCO WHSE #0132 VALLEJO</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1008.96</v>
+        <v>603.72</v>
       </c>
     </row>
     <row r="58">
@@ -1592,16 +1592,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>&amp; ROLLING PIN DONUTS LLC</t>
+          <t>TST* LA MAS QUERIDA SAN JOSE</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>15.13</v>
+        <v>272.82</v>
       </c>
     </row>
     <row r="59">
@@ -1612,16 +1612,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>&amp; CHEVRON 0090288 LOS ALTOS</t>
+          <t>DD DOORDASH IHOP</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>70.08</v>
+        <v>83.61</v>
       </c>
     </row>
     <row r="60">
@@ -1632,16 +1632,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>&amp;</t>
+          <t>DD DOORDASH SANJALISC</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>34</v>
+        <v>76.03</v>
       </c>
     </row>
     <row r="61">
@@ -1652,16 +1652,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>&amp; ALLIED PROPANE SERVICE</t>
+          <t>USC HOTEL 213-7484141</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>206.36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -1672,16 +1672,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EXCEL</t>
+          <t>USC HOTEL LOS ANGELES</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>40.27</v>
+        <v>105.01</v>
       </c>
     </row>
     <row r="63">
@@ -1692,16 +1692,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CRAIGSLIST.ORG</t>
+          <t>MICROSOFT#G054769793 MSBILL.INFO</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="64">
@@ -1712,16 +1712,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>L LOPEZ CPA</t>
+          <t>BOUNCIE HTTPSWWW.BOUN</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>19545</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -1732,16 +1732,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GOCHEES PIZZA</t>
+          <t>CANVA* I04234-71020306 HTTPSCANVA.CO</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>210.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1752,16 +1752,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VERNON FUEL DISTRIBUTION VERNON</t>
+          <t>IN *GOLDEN STATE MATERIAL 925-4877891</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>50</v>
+        <v>795.21</v>
       </c>
     </row>
     <row r="67">
@@ -1772,16 +1772,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>FREDDIE'S SANDWICHES</t>
+          <t>THE WEBSTAURANT STORE INC</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>263.35</v>
+        <v>306.86</v>
       </c>
     </row>
     <row r="68">
@@ -1792,16 +1792,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LEVY @ LEVIS STADIUM SANTA CLARA</t>
+          <t>BEST BUY MHT 00007633 HONOLULU</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>21.83</v>
+        <v>104.69</v>
       </c>
     </row>
     <row r="69">
@@ -1812,16 +1812,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>FORTY NINERS STADIUM MANA SANTA CLARA</t>
+          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
@@ -1832,16 +1832,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>7-ELEVEN 33006</t>
+          <t>SQ *ROYAL AUTO South San Fra</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>22.7</v>
+        <v>675.88</v>
       </c>
     </row>
     <row r="71">
@@ -1852,16 +1852,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ROLLING PIN DONUTS LLC</t>
+          <t>GREAT GAS LOS GATOS LOS GATOS</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>7.54</v>
+        <v>72.66</v>
       </c>
     </row>
     <row r="72">
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JUST AUTO</t>
+          <t>TARGET 00003319 VALLEJO</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>277</v>
+        <v>228.88</v>
       </c>
     </row>
     <row r="73">
@@ -1892,16 +1892,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>07/27/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RESTAURANT DEPOT</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>70.86</v>
+        <v>108.27</v>
       </c>
     </row>
     <row r="74">
@@ -1912,16 +1912,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>07/28/2024</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TM *TICKETMASTER</t>
+          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>397.65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75">
@@ -1932,16 +1932,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>07/28/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MIMI'S CAFE - FAIRFIELD FAIRFIELD</t>
+          <t>TARGET 00028704 HONOLULU</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>77.03</v>
+        <v>523.55</v>
       </c>
     </row>
     <row r="76">
@@ -1952,16 +1952,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SHOPIFY* 257398779 HTTPSSHOPIFY.</t>
+          <t>IN-N-OUT DALY CITY DALY CITY</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>115</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="77">
@@ -1972,16 +1972,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LA HACIENDA MARKET</t>
+          <t>ALLIED PROPANE SERVICE IN 510-2377077</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>260.02</v>
+        <v>206.36</v>
       </c>
     </row>
     <row r="78">
@@ -1992,16 +1992,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>WHEELHISTORY</t>
+          <t>TST* LA MAS QUERIDA</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>49.99</v>
+        <v>213.73</v>
       </c>
     </row>
     <row r="79">
@@ -2012,16 +2012,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>VISTAPRINT</t>
+          <t>SHERATON HOTEL WAIKIKI HONOLULU</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>72.16</v>
+        <v>589.8099999999999</v>
       </c>
     </row>
     <row r="80">
@@ -2032,16 +2032,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>SQ *ROYAL AUTO South San Fra</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>60.16</v>
+        <v>783.17</v>
       </c>
     </row>
     <row r="81">
@@ -2052,16 +2052,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>RUTH'S CHRIS 0227361 WAIKIKI</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>40.82</v>
+        <v>281.46</v>
       </c>
     </row>
     <row r="82">
@@ -2072,16 +2072,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SAFEWAY #0968</t>
+          <t>UBER* ONE HTTPSWWW.UBER</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>78.48999999999999</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="83">
@@ -2092,16 +2092,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7-ELEVEN 33006</t>
+          <t>STARBUCKS 800-782-7282</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>6.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -2112,16 +2112,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>VERNON FUEL VERNON</t>
+          <t>SHELL OIL 57444218200 VALLEJO</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>50</v>
+        <v>106.48</v>
       </c>
     </row>
     <row r="85">
@@ -2132,16 +2132,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>07/30/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>O'REILLY 2913 SANTA CLARA</t>
+          <t>STARBUCKS 800-782-7282</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>18.54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -2152,16 +2152,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>07/30/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ALLIED PROPANE SERVICE</t>
+          <t>TST*GIOVANNI PASTRAMI Honolulu</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>7</v>
+        <v>95.08</v>
       </c>
     </row>
     <row r="87">
@@ -2172,16 +2172,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>07/30/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>VOLARIS GI8BQK</t>
+          <t>OHANA GIFT OUTLET HONOLULU</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>41.64</v>
+        <v>480.41</v>
       </c>
     </row>
     <row r="88">
@@ -2192,16 +2192,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07/30/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>VALCOOP Y ASOCIADOS TLAJOMULCO</t>
+          <t>SCCWEIGHTSMEASURE</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>90.25</v>
+        <v>204.4</v>
       </c>
     </row>
     <row r="89">
@@ -2212,16 +2212,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>07/30/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BURGUER KING ANDARES ZAPOPAN JAL</t>
+          <t>CHEESECAKE HONOLULU HONOLULU</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>24.5</v>
+        <v>250.06</v>
       </c>
     </row>
     <row r="90">
@@ -2232,16 +2232,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>07/30/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MAGA SEAFOOD</t>
+          <t>STAR OF HONOLULU AUTHNET</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>2175.9</v>
+        <v>840.02</v>
       </c>
     </row>
     <row r="91">
@@ -2252,16 +2252,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>07/31/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DD DOORDASH IHOP</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>90.06</v>
+        <v>79.20999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2272,16 +2272,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>07/31/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>WHEELHISTORY</t>
+          <t>AIRFI VOLARI09-980b-962a8</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>49.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>07/31/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>IN-N-OUT</t>
+          <t>MCDONALD'S M5335 OF HI HONOLULU</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44.99</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="94">
@@ -2312,16 +2312,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>07/31/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TARGET 00010546</t>
+          <t>1011PEPSIVEN9147678600 AIEA</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>461.97</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="95">
@@ -2332,16 +2332,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>07/31/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>COSTCO WHSE #0132</t>
+          <t>DUKES WAIKIKI HONOLULU</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>198.67</v>
+        <v>176.42</v>
       </c>
     </row>
     <row r="96">
@@ -2352,16 +2352,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>07/31/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LOWES #01871*</t>
+          <t>TST* LA MAS QUERIDA</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>57.82</v>
+        <v>200.01</v>
       </c>
     </row>
     <row r="97">
@@ -2372,16 +2372,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ALMADEN OPTOMETRIC ASSOCI</t>
+          <t>SHELL OIL 10008043001 MILPITAS</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>130</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="98">
@@ -2392,16 +2392,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>COSTCO WHSE #0470</t>
+          <t>SQ *KUALOA PHOTOGRAPH KANEOHE</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>441.85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -2412,16 +2412,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>COSTCO WHSE #0470</t>
+          <t>KUALOA RANCH - FF KANEOHE</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>579.98</v>
+        <v>269.18</v>
       </c>
     </row>
     <row r="100">
@@ -2432,16 +2432,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>POINTMP*GANA CIUDAD DE MEX</t>
+          <t>BJS RESTAURANTS 492 CONCORD</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>13.29</v>
+        <v>233.14</v>
       </c>
     </row>
     <row r="101">
@@ -2452,16 +2452,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>FARM SIMILARES SUC 119 GUADALAJARA J</t>
+          <t>AIM WAIKIKI 0107345100 HONOLULU</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>30.09</v>
+        <v>55.01</v>
       </c>
     </row>
     <row r="102">
@@ -2472,16 +2472,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>76 - DOUBLE AA SAN BRU</t>
+          <t>1011PEPSIVEN9147678600 AIEA</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>100.01</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="103">
@@ -2492,16 +2492,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>USC HOTEL</t>
+          <t>1011PEPSIVEN9147678600 AIEA</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>403.95</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="104">
@@ -2512,16 +2512,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>76 - A &amp; C SERVICE INC</t>
+          <t>STATE OF CALIF DMV INT SC 800-7770133</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>50</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105">
@@ -2532,16 +2532,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ULINE *SHIP SUPPLIES</t>
+          <t>WET 'N' WILD HAWAII KAPOLEI</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>1207.22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -2552,16 +2552,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ULINE *SHIP SUPPLIES</t>
+          <t>WET 'N' WILD HAWAII KAPOLEI</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>449.57</v>
+        <v>167.9</v>
       </c>
     </row>
     <row r="107">
@@ -2572,16 +2572,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>COMCAST CALIFORNIA 800-COMCAST</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>52.42</v>
+        <v>80.12</v>
       </c>
     </row>
     <row r="108">
@@ -2592,16 +2592,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>JOY MORODOJEWELRY GUADALAJARA J</t>
+          <t>SHERATON HOTEL WAIKIKI HONOLULU</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>4073.87</v>
+        <v>3185.25</v>
       </c>
     </row>
     <row r="109">
@@ -2612,16 +2612,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>STARBUCKS MINERVA GUADALAJARA J</t>
+          <t>WAVE - *TRI-VALLEY LIFT 925-3846147</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>38.02</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110">
@@ -2632,16 +2632,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GAS MINERVA GDL GUADALAJARA J</t>
+          <t>YARD HOUSE ZK 0108316 HONOLULU</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>105.23</v>
+        <v>259.81</v>
       </c>
     </row>
     <row r="111">
@@ -2652,16 +2652,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>RESTAURANT DEPOT</t>
+          <t>CA DMV FEE 678-7315516</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>1298.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="112">
@@ -2672,16 +2672,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>COM RAPID RIM ATO MEX MERIDA YUC</t>
+          <t>USPS PO 0506240270 BENICIA</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>17.73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
@@ -2692,16 +2692,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>H64 DIVERS GDL TLAJOMULCO</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>13.01</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="114">
@@ -2712,16 +2712,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>COM RAPID RIM ATO MEX MERIDA YUC</t>
+          <t>IN *GOLDEN STATE MATERIAL 925-4877891</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>5.04</v>
+        <v>371.01</v>
       </c>
     </row>
     <row r="115">
@@ -2732,16 +2732,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>POLLO CAMPERO R135 OLO</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>402.22</v>
+        <v>70.04000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -2752,16 +2752,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>GREAT GAS LOS GATOS LOS GATOS</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>38.29</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="117">
@@ -2772,16 +2772,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/15/2024</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>76 - A &amp; C SERVICE INC</t>
+          <t>WAL-MART #1651 VALLEJO</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>50</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="118">
@@ -2792,16 +2792,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>STATE OF CALIF DMV INT</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>294</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="119">
@@ -2812,16 +2812,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CA DMV FEE</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>5.73</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="120">
@@ -2832,16 +2832,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>08/16/2024</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DD DOORDASH PARKHOWAR</t>
+          <t>STARBUCKS 800-782-7282</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>233.57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
@@ -2852,16 +2852,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>08/16/2024</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>COSTCO WHSE #0132</t>
+          <t>SQ *BB TEA San Jose</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>603.72</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="122">
@@ -2872,16 +2872,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>LA MAS QUERIDA</t>
+          <t>WIX.COM 1-415-6399034</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>272.82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
@@ -2892,16 +2892,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>USC HOTEL</t>
+          <t>PROGRESSIVE INS</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>32</v>
+        <v>120.84</v>
       </c>
     </row>
     <row r="124">
@@ -2912,16 +2912,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>USC HOTEL</t>
+          <t>KRISPY KREME #7630 SAN JOSE</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>105.01</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="125">
@@ -2932,16 +2932,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>KWIK SERV</t>
+          <t>SQ *FREDDIE'S SANDWICHES SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>46.33</v>
+        <v>259.25</v>
       </c>
     </row>
     <row r="126">
@@ -2952,16 +2952,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/16/2024</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DD DOORDASH IHOP</t>
+          <t>DECALS.COM 320-8469000</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>83.61</v>
+        <v>190.14</v>
       </c>
     </row>
     <row r="127">
@@ -2972,16 +2972,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DD DOORDASH SANJALISC</t>
+          <t>REPUBLIC SERVICES TRASH</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>76.03</v>
+        <v>272.71</v>
       </c>
     </row>
     <row r="128">
@@ -2992,16 +2992,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/15/2024</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MICROSOFT#G054769793</t>
+          <t>EL FAROS MEXICAN FOOD SOUTH SAN FRA</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>24.75</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="129">
@@ -3012,16 +3012,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CANVA* I04234-71020306</t>
+          <t>STARBUCKS 800-782-7282</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
@@ -3032,16 +3032,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>STAR-BOX, INC</t>
+          <t>EB FOODIELAND NIGHT M</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>3907.24</v>
+        <v>39.55</v>
       </c>
     </row>
     <row r="131">
@@ -3052,16 +3052,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>08/06/2024</t>
+          <t>08/15/2024</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BOUNCIE</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>9</v>
+        <v>42.67</v>
       </c>
     </row>
     <row r="132">
@@ -3072,16 +3072,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>08/06/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>IN *GOLDEN STATE MATERIAL</t>
+          <t>CHEVRON 0090543 WINTERS</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>795.21</v>
+        <v>101.71</v>
       </c>
     </row>
     <row r="133">
@@ -3092,16 +3092,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>08/06/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>THE WEBSTAURANT STORE INC</t>
+          <t>SIXFLAGS DK VALLEJO CA</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>306.86</v>
+        <v>338.25</v>
       </c>
     </row>
     <row r="134">
@@ -3112,16 +3112,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>08/06/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TARGET 00003319</t>
+          <t>BEST BUY 00011288 VALLEJO</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>228.88</v>
+        <v>366.21</v>
       </c>
     </row>
     <row r="135">
@@ -3132,16 +3132,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>08/06/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>TST*CANTINA JACKS - PLEA Pleasant Hill</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>108.27</v>
+        <v>362.99</v>
       </c>
     </row>
     <row r="136">
@@ -3152,16 +3152,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BEST BUY MHT 00007633 HONOLULU</t>
+          <t>SQ *ROYAL AUTO South San Fra</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>104.69</v>
+        <v>176.74</v>
       </c>
     </row>
     <row r="137">
@@ -3172,16 +3172,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
+          <t>SIXFLAGS DK VALLEJO CA VALLEJO</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
@@ -3192,16 +3192,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ROYAL AUTO</t>
+          <t>SIXFLAGS DK VALLEJO CA VALLEJO</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>675.88</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="139">
@@ -3212,16 +3212,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GREAT GAS LOS GATOS LOS GATOS</t>
+          <t>DAZN US dazn.com</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>72.66</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="140">
@@ -3232,16 +3232,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>TARGET 00028704 HONOLULU</t>
+          <t>BEVERAGES &amp; MORE #119 BURLINGAME</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>523.55</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="141">
@@ -3252,16 +3252,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>IN-N-OUT</t>
+          <t>COSTCO WHSE #0470 SAN JOSE</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>37.8</v>
+        <v>839.53</v>
       </c>
     </row>
     <row r="142">
@@ -3272,16 +3272,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>LA MAS QUERIDA</t>
+          <t>TST*JACKS RESTAURANT &amp; B Pleasant Hill</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>213.73</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="143">
@@ -3292,16 +3292,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>CHEVRON 0309093</t>
+          <t>VALLEY RECYCLING 408-2975352</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>49.98</v>
+        <v>84.45999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -3312,16 +3312,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>STAR-BOX, INC</t>
+          <t>EXCEL SAN JOSE</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>2723.3</v>
+        <v>80.41</v>
       </c>
     </row>
     <row r="145">
@@ -3332,16 +3332,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>08/21/2024</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
+          <t>BESTBUYCOM806959372533 888BESTBUY</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>50</v>
+        <v>673.12</v>
       </c>
     </row>
     <row r="146">
@@ -3352,16 +3352,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>08/21/2024</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ALLIED PROPANE SERVICE</t>
+          <t>7 DAYS SMOG &amp; DMV REG SVC OAKLAND</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>206.36</v>
+        <v>7446.18</v>
       </c>
     </row>
     <row r="147">
@@ -3372,16 +3372,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>08/21/2024</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SHERATON HOTEL WAIKIKI HONOLULU</t>
+          <t>BESTBUYCOM806959372533 888BESTBUY</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>589.8099999999999</v>
+        <v>422.43</v>
       </c>
     </row>
     <row r="148">
@@ -3392,16 +3392,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>08/22/2024</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>THE WEBSTAURANT STORE INC</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>106.48</v>
+        <v>432.3</v>
       </c>
     </row>
     <row r="149">
@@ -3412,16 +3412,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>08/22/2024</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ROYAL AUTO</t>
+          <t>ALLIED PROPANE SERVICE IN 510-2377077</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>783.17</v>
+        <v>107.44</v>
       </c>
     </row>
     <row r="150">
@@ -3432,16 +3432,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>07/22/2024</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>RUTH'S CHRIS 0227361 WAIKIKI</t>
+          <t>VERNON FUEL VERNON</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>281.46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151">
@@ -3452,16 +3452,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>07/24/2024</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>GIOVANNI PASTRAMI Honolulu</t>
+          <t>MI JALISCO RESTAURANTE VALLEJO</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>95.08</v>
+        <v>58.98</v>
       </c>
     </row>
     <row r="152">
@@ -3472,16 +3472,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>07/24/2024</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>OHANA GIFT OUTLET HONOLULU</t>
+          <t>VERNON FUEL VERNON</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>480.41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153">
@@ -3492,16 +3492,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>07/24/2024</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CHEESECAKE HONOLULU HONOLULU</t>
+          <t>TOYOTA VALLEJO VALLEJO</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>250.06</v>
+        <v>397.32</v>
       </c>
     </row>
     <row r="154">
@@ -3512,16 +3512,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>07/24/2024</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>STAR OF HONOLULU AUTHNET</t>
+          <t>TOYOTA VALLEJO VALLEJO</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>840.02</v>
+        <v>1008.96</v>
       </c>
     </row>
     <row r="155">
@@ -3532,16 +3532,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>07/26/2024</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>STATE OF CALIF DMV INT</t>
+          <t>VERNON FUEL DISTRIBUTION VERNON</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>241</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156">
@@ -3552,16 +3552,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CA DMV FEE</t>
+          <t>JUST AUTO LOS ANGELES LOS ANGELES</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>4.7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157">
@@ -3572,16 +3572,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>08/09/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CHEVRON 0309093</t>
+          <t>RESTAURANT DEPOT LOS ANGELES</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>50</v>
+        <v>70.86</v>
       </c>
     </row>
     <row r="158">
@@ -3592,16 +3592,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>07/28/2024</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>UBER* ONE</t>
+          <t>MIMI'S CAFE - FAIRFIELD FAIRFIELD</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>3.73</v>
+        <v>77.03</v>
       </c>
     </row>
     <row r="159">
@@ -3612,16 +3612,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>VERNON FUEL VERNON</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160">
@@ -3632,16 +3632,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>07/30/2024</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>SQ *MAGA SEAFOOD</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>30</v>
+        <v>2175.9</v>
       </c>
     </row>
     <row r="161">
@@ -3652,16 +3652,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>07/31/2024</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SCCWEIGHTSMEASURE</t>
+          <t>COSTCO WHSE #0132 VALLEJO</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>204.4</v>
+        <v>198.67</v>
       </c>
     </row>
     <row r="162">
@@ -3672,16 +3672,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>07/31/2024</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>LOWES #01871* VALLEJO</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>79.20999999999999</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="163">
@@ -3692,16 +3692,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>AIRFI VOLARI09-980b-962a8</t>
+          <t>76 - A &amp; C SERVICE INC LOS ANGELES</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>MCDONALD'S M5335 OF HI HONOLULU</t>
+          <t>76 - A &amp; C SERVICE INC LOS ANGELES</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>17.56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165">
@@ -3732,16 +3732,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1011PEPSIVEN9147678600 AIEA</t>
+          <t>RESTAURANT DEPOT SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>2.6</v>
+        <v>1298.6</v>
       </c>
     </row>
     <row r="166">
@@ -3752,16 +3752,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DUKES WAIKIKI HONOLULU</t>
+          <t>KWIK SERV VALLEJO SPRI VALLEJO</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>176.42</v>
+        <v>46.33</v>
       </c>
     </row>
     <row r="167">
@@ -3772,16 +3772,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>STAR-BOX, INC 562-9120300</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>40.08</v>
+        <v>3907.24</v>
       </c>
     </row>
     <row r="168">
@@ -3792,16 +3792,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>LA MAS QUERIDA</t>
+          <t>STATE OF CALIF DMV INT SC 800-7770133</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>200.01</v>
+        <v>294</v>
       </c>
     </row>
     <row r="169">
@@ -3812,16 +3812,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>KUALOA PHOTOGRAPH KANEOHE</t>
+          <t>CA DMV FEE 678-7315516</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>20</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="170">
@@ -3832,16 +3832,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>KUALOA RANCH - FF KANEOHE</t>
+          <t>CHEVRON 0309093 LOS ANGELES</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>269.18</v>
+        <v>49.98</v>
       </c>
     </row>
     <row r="171">
@@ -3852,16 +3852,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BJS RESTAURANTS 492 CONCORD</t>
+          <t>STAR-BOX, INC 562-9120300</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>233.14</v>
+        <v>2723.3</v>
       </c>
     </row>
     <row r="172">
@@ -3872,16 +3872,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>AIM WAIKIKI</t>
+          <t>CHEVRON 0309093 LOS ANGELES</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>55.01</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173">
@@ -3892,16 +3892,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1011PEPSIVEN9147678600 AIEA</t>
+          <t>SHELL OIL12631503013 LOS ANGELES</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>3.1</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="174">
@@ -3912,16 +3912,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1011PEPSIVEN9147678600 AIEA</t>
+          <t>VERNON FUEL VERNON</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>3.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175">
@@ -3932,16 +3932,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/16/2024</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>WET 'N' WILD HAWAII KAPOLEI</t>
+          <t>VERNON FUEL DISTRIBUTION VERNON</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176">
@@ -3952,16 +3952,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>WET 'N' WILD HAWAII KAPOLEI</t>
+          <t>INTUIT *TSheets CL.INTUIT.COM</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>167.9</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177">
@@ -3972,16 +3972,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>08/12/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SHELL OIL12631503013</t>
+          <t>O'REILLY 3488 VALLEJO</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>49.32</v>
+        <v>125.62</v>
       </c>
     </row>
     <row r="178">
@@ -3992,16 +3992,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SHERATON HOTEL WAIKIKI HONOLULU</t>
+          <t>HARBOR FREIGHT TOOLS 17 VALLEJO</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>3185.25</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="179">
@@ -4012,16 +4012,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>WAVE - *TRI-VALLEY LIFT</t>
+          <t>VERNON FUEL VERNON</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>440</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180">
@@ -4032,16 +4032,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>08/21/2024</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>YARD HOUSE ZK 0108316 HONOLULU</t>
+          <t>STAR-BOX, INC 562-9120300</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>259.81</v>
+        <v>2970.89</v>
       </c>
     </row>
     <row r="181">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>08/21/2024</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>USPS</t>
+          <t>SHELL OIL12631503013 LOS ANGELES</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
@@ -4067,661 +4067,661 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>FASTRAK CSC</t>
+          <t>76 - NW254074 ASD2 NOC SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>2860</v>
+        <v>66.29000000000001</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>IN *GOLDEN STATE MATERIAL</t>
+          <t>CASTRO VALLEY UNION 76 CASTRO VALLEY</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>371.01</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>07/24/2024</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>76 - NW254074 ASD2 NOC SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>70.04000000000001</v>
+        <v>92.06</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>COMCAST CALIFORNIA 800-COMCAST</t>
+          <t>ARCO#04977TD OIL &amp; GAS L CASTRO VALLEY</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>80.12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>07/31/2024</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>GREAT GAS LOS GATOS LOS GATOS</t>
+          <t>CILANTRO SF TAQUERIA SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>76.87</v>
+        <v>75.78</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>Staples Inc staples.com</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>36.81</v>
+        <v>232.33</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>LUCKY #748 SAN BRUN SAN BRUNO</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>33.42</v>
+        <v>72.81</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>VERNON FUEL VERNON</t>
+          <t>CHEVRON 0358727 PLEASANTON</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>50</v>
+        <v>95.28</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>08/15/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>WAL-MART #1651</t>
+          <t>OFFICE DEPOT #3286 COLMA</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>109.2</v>
+        <v>245.29</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>08/15/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EL FAROS MEXICAN FOOD</t>
+          <t>ARCO#04977TD OIL &amp; GAS L CASTRO VALLEY</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>24.05</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>08/15/2024</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>HARBOR FREIGHT TOOLS 494 HAYWARD</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>42.67</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>08/16/2024</t>
+          <t>08/09/2024</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>SQ *VICTORIA PASTRY CO. San Francisco</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>08/16/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>BB TEA</t>
+          <t>SQ *FREDDIE'S SANDWICHES SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>14.95</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>08/16/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DECALS.COM</t>
+          <t>SPEEDWAY 4874 SOUTH SAN FRA</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>190.14</v>
+        <v>100.26</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>08/16/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>VERNON FUEL DISTRIBUTION VERNON</t>
+          <t>JIFFY LUBE #1404 HAYWARD</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>50</v>
+        <v>199.81</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>WIX.COM 1-415-6399034</t>
+          <t>76 - NW254074 ASD2 NOC SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>KRISPY KREME #7630</t>
+          <t>BERKELEY-TRANSFER STAT BERKELEY</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>23.69</v>
+        <v>129.36</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>FREDDIE'S SANDWICHES</t>
+          <t>OAKLAND PORT GAS STATION OAKLAND</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>259.25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>REPUBLIC SERVICES TRASH</t>
+          <t>OAKLAND PORT GAS STATION OAKLAND</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>272.71</v>
+        <v>105.12</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>OAKLAND PORT GAS STATION OAKLAND</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>EB FOODIELAND NIGHT M</t>
+          <t>OAKLAND PORT GAS STATION OAKLAND</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>39.55</v>
+        <v>128</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>INTUIT *TSheets</t>
+          <t>CHEFSTORE 7571 SAN JOSE</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>252</v>
+        <v>108.27</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>O'REILLY 3488</t>
+          <t>O'REILLY 2754 SAN JOSE</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>125.62</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PROGRESSIVE INS</t>
+          <t>AUTOZONE #3337 SANTA CLARA</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>120.84</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CHEVRON 0090543 WINTERS</t>
+          <t>EAST PENN SAN JOSE SAN JOSE</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>101.71</v>
+        <v>138.69</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>CANTINA JACKS - PLEA Pleasant Hill</t>
+          <t>BAYSHORE AUTOMOTIVE 408-4419986</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>362.99</v>
+        <v>144.78</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SIXFLAGS</t>
+          <t>STAPLES 00107193 SAN JOSE</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>30</v>
+        <v>194.67</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>PULAK UNG</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SIXFLAGS</t>
+          <t>WINGSTOP 438</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>25.2</v>
+        <v>193.76</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>PULAK UNG</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>JACKS RESTAURANT &amp; B Pleasant Hill</t>
+          <t>NATIONS GIANT HAMBURGERS</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>25.1</v>
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>PULAK UNG</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SIXFLAGS</t>
+          <t>NATIONS GIANT HAMBURGERS</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>338.25</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>PULAK UNG</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>BEST BUY 00011288</t>
+          <t>HABIT ANTIOCH #109 https://prod.</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>366.21</v>
+        <v>170.94</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>PULAK UNG</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>07/25/2024</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>ROYAL AUTO</t>
+          <t>NAPA VALLEY PUBLISHING 707-2562207</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>176.74</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>PULAK UNG</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>07/25/2024</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DAZN</t>
+          <t>FASTRAK VIOLATION CENT</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>29.99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215">
@@ -4732,16 +4732,16 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>BEVERAGES &amp; MORE #119</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>64.78</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="216">
@@ -4752,16 +4752,16 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>07/30/2024</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>COSTCO WHSE #0470</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>839.53</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="217">
@@ -4772,16 +4772,16 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>07/31/2024</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>HARBOR FREIGHT TOOLS 17</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>39.94</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="218">
@@ -4792,16 +4792,16 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>VERNON FUEL VERNON</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>50</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="219">
@@ -4812,16 +4812,16 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>VALLEY RECYCLING</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>84.45999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="220">
@@ -4832,16 +4832,16 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EXCEL</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>80.41</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="221">
@@ -4852,16 +4852,16 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>08/21/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>BESTBUYCOM806959372533 888BESTBUY</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>673.12</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="222">
@@ -4872,16 +4872,16 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>08/21/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>7 DAYS SMOG &amp; DMV REG SVC</t>
+          <t>QUICKQUACK WWW.DONTDRIVE</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>7446.18</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="223">
@@ -4892,16 +4892,16 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>08/21/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>BESTBUYCOM806959372533 888BESTBUY</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>422.43</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="224">
@@ -4912,16 +4912,16 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>08/21/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>STAR-BOX, INC</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>2970.89</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="225">
@@ -4932,16 +4932,16 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>08/21/2024</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>SHELL OIL12631503013</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>50</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="226">
@@ -4952,16 +4952,16 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>08/22/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>THE WEBSTAURANT STORE INC</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>432.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -4972,212 +4972,212 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>08/22/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>ALLIED PROPANE SERVICE</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>107.44</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>&amp; WINGSTOP 438</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>193.76</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>&amp; NATIONS GIANT HAMBURGERS</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>84.40000000000001</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>&amp; NATIONS GIANT HAMBURGERS</t>
+          <t>LUCKY #748 SAN BRUN SAN BRUNO</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>37.9</v>
+        <v>264.74</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>07/23/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>&amp; HABIT ANTIOCH #109 https://prod.</t>
+          <t>TAQUERIA LAS PENCAS SOUTH SAN FRA</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>170.94</v>
+        <v>57.18</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>&amp; NAPA VALLEY PUBLISHING</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>14.99</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK VIOLATION CENT</t>
+          <t>TST*PARK &amp; HOWARD BISTRO Burlingame</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>72</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>07/29/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>SQ *REFLECTIONS CRYSTALS Salinas</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>9.5</v>
+        <v>54.69</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>07/30/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>CITY OF BURLINGAME-PARKI BURLINGAME</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>9.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>07/31/2024</t>
+          <t>08/16/2024</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>ONE HOUR DRY CLEANING 650-8715757</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>16.5</v>
+        <v>262.11</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/15/2024</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
@@ -5187,721 +5187,721 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>08/16/2024</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>CACHE CREEK CASINO F&amp;B BROOKS</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>9.5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>08/06/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>SHELL OIL 57444678403 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>9.5</v>
+        <v>91.95999999999999</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>08/06/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>&amp; QUICKQUACK</t>
+          <t>SIXFLAGS DK VALLEJO CA VALLEJO</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45.99</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>08/06/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>SIXFLAGS DK VALLEJO CA VALLEJO</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>9.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>08/18/2024</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>08/19/2024</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>FASTRAK CSC</t>
+          <t>TMOBILE*AUTO PAY</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>9.5</v>
+        <v>920.4299999999999</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>08/12/2024</t>
+          <t>08/21/2024</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>CCSI EFAX</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>16.5</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>08/21/2024</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>FASTRAK CSC</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>LUCKY #748 SAN BRUN</t>
+          <t>SQ *MAGA SEAFOOD gosq.com</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>264.74</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>07/23/2024</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>TAQUERIA LAS PENCAS</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>57.18</v>
+        <v>98.09</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>07/25/2024</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>LEGALZOOM* LEGAL PLAN 888-3100151</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>16.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>08/15/2024</t>
+          <t>07/24/2024</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>8CHICK-FIL-A #04448 DALY CITY</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>9.5</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>08/16/2024</t>
+          <t>07/24/2024</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>ONE HOUR DRY CLEANING</t>
+          <t>SHELL OIL 57444215503 DALY CITY</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>262.11</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>08/16/2024</t>
+          <t>07/24/2024</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>16.5</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>07/26/2024</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>PARK &amp; HOWARD BISTRO</t>
+          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>07/25/2024</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>REFLECTIONS CRYSTALS Salinas</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>54.69</v>
+        <v>48.07</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>07/25/2024</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CITY</t>
+          <t>TST* TOSTADAS 3 Santa Clara</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>08/17/2024</t>
+          <t>07/26/2024</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>SHELL OIL</t>
+          <t>4 WHEEL PARTS 19 JOS SAN JOSE</t>
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>91.95999999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>07/28/2024</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CACHE CREEK CASINO F&amp;B BROOKS</t>
+          <t>TST* ANGRY CHICKZ - VALLE VALLEJO</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>143</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>SIXFLAGS</t>
+          <t>SHELL OIL 57444218705 VALLEJO</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>95.88</v>
+        <v>60.13</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>07/26/2024</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>SIXFLAGS</t>
+          <t>TAQUERIA LEON SAN BRUNO</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>83</v>
+        <v>63.22</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>08/18/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>CARNICERIA TEPA SOUTH SAN FRA</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>7</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>SHELL OIL 57444218705 VALLEJO</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>10.5</v>
+        <v>104.04</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>07/27/2024</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>&amp; TMOBILE*AUTO PAY</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>920.4299999999999</v>
+        <v>45.11</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>08/20/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>PG&amp;E/EZ-PAY</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>9.5</v>
+        <v>512.85</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>08/21/2024</t>
+          <t>07/29/2024</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>&amp; CCSI EFAX</t>
+          <t>PG&amp;E/EZ-PAY</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>18.99</v>
+        <v>977.8200000000001</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>08/21/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>&amp; FASTRAK CSC</t>
+          <t>ECM, A LEGALZOOM CO. LEGALZOOM.COM</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>16.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>RODRIGUEZ GUTIERREZ</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CHEFSTORE 7571</t>
+          <t>SQ *YARA?S MEXICAN FOOD SOUTH SAN FRA</t>
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>108.27</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>RODRIGUEZ GUTIERREZ</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>O'REILLY 2754</t>
+          <t>TAQUERIA LAS PENCAS 2 SAN MATEO</t>
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>21.85</v>
+        <v>62.03</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RODRIGUEZ GUTIERREZ</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>AUTOZONE #3337 SANTA CLARA</t>
+          <t>76 - DOUBLE AA SAN BRU SAN BRUNO</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>23.99</v>
+        <v>90.01000000000001</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>RODRIGUEZ GUTIERREZ</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>08/12/2024</t>
+          <t>08/17/2024</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EAST PENN</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>138.69</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RODRIGUEZ GUTIERREZ</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>08/13/2024</t>
+          <t>08/21/2024</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>BAYSHORE AUTOMOTIVE</t>
+          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>144.78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>RODRIGUEZ GUTIERREZ</t>
+          <t>JOSE RODRIGUEZ</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>08/19/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>STAPLES 00107193</t>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>194.67</v>
+        <v>60.8</v>
       </c>
     </row>
   </sheetData>
